--- a/workSpace/浙江校讯通/新需求/（2011年3月）需求明细.xlsx
+++ b/workSpace/浙江校讯通/新需求/（2011年3月）需求明细.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="158">
   <si>
     <t>完成情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,177 +552,185 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>教师前台放开班主任的限制；只要带这个班级就能修改学生的亲情号码、手机号码；学生档案、亲情号码绑定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡信息下发、删除信息，做成页面功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台家长短信箱--添加教师接收短信查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有短信内容中，学校名称放后面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生数据管理-查询类型-添加家长卡类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长号码更变日志，增加一个姓名的查询条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长互动日志--权限开给sa；考虑在代码里做限制；sa的话，只能看到本人发送的记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入发送--没订购业务的不要发送；没订购业务的学生，直接匹配失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师手机上行群发短信，支持指定班级发送；端口号依然是：106570618807
+如果要指定班级的话，在短信内容前输入班级名称，以#号隔开，班级名称之间用*隔开；例如：小一（1）班*小一（2）班#短信测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学籍管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲情电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长短信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四周</t>
+  </si>
+  <si>
+    <t>第四周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师积分</t>
+  </si>
+  <si>
+    <t>家长短信</t>
+  </si>
+  <si>
+    <t>考勤</t>
+  </si>
+  <si>
+    <t>亲情电话</t>
+  </si>
+  <si>
+    <t>未分配</t>
+  </si>
+  <si>
+    <t>孙友华</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨高岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙友华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙友华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在业务定制加入：同步状态，订购状态（类似查询定制）、最新更新时间查询条件
+在查询定制加入：最新更新时间查询条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林汉升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙友华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙友华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长卡号导入；1、提供学校名称+班级名称+姓名的模板；2、学生导入的模板加入一列家长卡，这样做两张卡，就可以一次导入完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林汉升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伍鹰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>定制日志：
 1）导出时无法区分是收费还是免费，需要增加一个字段来标识
 2）页面上增加一项来筛选收费、免费的日志</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>教师前台放开班主任的限制；只要带这个班级就能修改学生的亲情号码、手机号码；学生档案、亲情号码绑定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡信息下发、删除信息，做成页面功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台家长短信箱--添加教师接收短信查询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有短信内容中，学校名称放后面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生数据管理-查询类型-添加家长卡类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长号码更变日志，增加一个姓名的查询条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长互动日志--权限开给sa；考虑在代码里做限制；sa的话，只能看到本人发送的记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入发送--没订购业务的不要发送；没订购业务的学生，直接匹配失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t xml:space="preserve"> 待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据公话所在位置，修改考勤内容包含公话位置内容。修改考勤程序短信内容添加公话位置。（前提不影响现有用户使用的情况）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>考勤短信查询--按姓名、手机号码查询</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>教师手机上行群发短信，支持指定班级发送；端口号依然是：106570618807
-如果要指定班级的话，在短信内容前输入班级名称，以#号隔开，班级名称之间用*隔开；例如：小一（1）班*小一（2）班#短信测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学籍管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲情电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长短信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四周</t>
-  </si>
-  <si>
-    <t>第四周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师积分</t>
-  </si>
-  <si>
-    <t>家长短信</t>
-  </si>
-  <si>
-    <t>考勤</t>
-  </si>
-  <si>
-    <t>亲情电话</t>
-  </si>
-  <si>
-    <t>未分配</t>
-  </si>
-  <si>
-    <t>孙友华</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨高岭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙友华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙友华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柳振</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据公话所在位置，修改考勤内容包含公话位置内容。修改考勤程序短信内容添加公话位置。（前提不影响现有用户使用的情况）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在业务定制加入：同步状态，订购状态（类似查询定制）、最新更新时间查询条件
-在查询定制加入：最新更新时间查询条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林汉升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙友华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙友华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家长卡号导入；1、提供学校名称+班级名称+姓名的模板；2、学生导入的模板加入一列家长卡，这样做两张卡，就可以一次导入完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林汉升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伍鹰</t>
+    <t>1、在公话管理添加一个地址属性，同时增加一个配置标识。当发考勤短信时，这个配置项设置上了，发考勤短信时就附上这个地址。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,6 +1017,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,13 +1151,26 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[（2011年3月）需求明细.xlsx]模块分布!数据透视表7</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1160,7 +1187,12 @@
               <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1181,7 +1213,12 @@
               <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1202,7 +1239,12 @@
               <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -1236,7 +1278,12 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1317,13 +1364,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1335,12 +1394,23 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[（2011年3月）需求明细.xlsx]责任人完成情况!数据透视表2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1408,6 +1478,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1422,6 +1493,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>责任人完成情况!$A$3:$A$10</c:f>
@@ -1481,6 +1553,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>责任人完成情况!$A$3:$A$10</c:f>
@@ -1546,6 +1619,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>责任人完成情况!$A$3:$A$10</c:f>
@@ -1605,6 +1679,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>责任人完成情况!$A$3:$A$10</c:f>
@@ -1647,40 +1722,59 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75263360"/>
-        <c:axId val="75269248"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="101537792"/>
+        <c:axId val="69908096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75263360"/>
+        <c:axId val="101537792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75269248"/>
+        <c:crossAx val="69908096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75269248"/>
+        <c:axId val="69908096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75263360"/>
+        <c:crossAx val="101537792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1692,12 +1786,23 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[（2011年3月）需求明细.xlsx]总体完成情况!数据透视表1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1765,6 +1870,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1779,6 +1885,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>总体完成情况!$A$3:$A$7</c:f>
@@ -1826,6 +1933,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>总体完成情况!$A$3:$A$7</c:f>
@@ -1876,6 +1984,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>总体完成情况!$A$3:$A$7</c:f>
@@ -1926,6 +2035,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>总体完成情况!$A$3:$A$7</c:f>
@@ -1959,40 +2069,59 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76012544"/>
-        <c:axId val="76874496"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="107708416"/>
+        <c:axId val="69909824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76012544"/>
+        <c:axId val="107708416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76874496"/>
+        <c:crossAx val="69909824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76874496"/>
+        <c:axId val="69909824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76012544"/>
+        <c:crossAx val="107708416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2113,7 +2242,7 @@
     <worksheetSource ref="A1:K48" sheet="需求明细"/>
   </cacheSource>
   <cacheFields count="11">
-    <cacheField name="序&#10;号" numFmtId="0">
+    <cacheField name="序_x000a_号" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="47"/>
     </cacheField>
     <cacheField name="所属模块" numFmtId="0">
@@ -2168,7 +2297,7 @@
         <s v="第四周"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="计划&#10;完成日期" numFmtId="0">
+    <cacheField name="计划_x000a_完成日期" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-03-07T00:00:00" maxDate="2011-05-01T00:00:00"/>
     </cacheField>
     <cacheField name="完成情况" numFmtId="0">
@@ -2202,6 +2331,11 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -3563,7 +3697,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3637,6 +3771,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3671,6 +3806,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3846,19 +3982,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.25" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="57.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="56.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
     <col min="6" max="7" width="6.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="3" customWidth="1"/>
@@ -3866,7 +4002,7 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3901,7 +4037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" customHeight="1">
+    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3932,7 +4068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="36.75">
+    <row r="3" spans="1:17" ht="36.75" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3963,7 +4099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" customHeight="1">
+    <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3994,7 +4130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27">
+    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4025,7 +4161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="21" customHeight="1">
+    <row r="6" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4056,7 +4192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="24">
+    <row r="7" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4087,7 +4223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="20.25" customHeight="1">
+    <row r="8" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4118,7 +4254,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="22" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:17" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4159,7 +4295,7 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
     </row>
-    <row r="10" spans="1:17" s="22" customFormat="1" ht="24">
+    <row r="10" spans="1:17" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4198,7 +4334,7 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
     </row>
-    <row r="11" spans="1:17" s="22" customFormat="1" ht="24">
+    <row r="11" spans="1:17" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4237,7 +4373,7 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
     </row>
-    <row r="12" spans="1:17" s="22" customFormat="1" ht="24">
+    <row r="12" spans="1:17" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -4278,7 +4414,7 @@
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
     </row>
-    <row r="13" spans="1:17" s="22" customFormat="1" ht="24">
+    <row r="13" spans="1:17" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4317,7 +4453,7 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
     </row>
-    <row r="14" spans="1:17" s="22" customFormat="1" ht="60">
+    <row r="14" spans="1:17" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -4356,7 +4492,7 @@
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
     </row>
-    <row r="15" spans="1:17" s="22" customFormat="1" ht="24">
+    <row r="15" spans="1:17" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4397,7 +4533,7 @@
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
     </row>
-    <row r="16" spans="1:17" s="22" customFormat="1" ht="24">
+    <row r="16" spans="1:17" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -4432,7 +4568,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="17" spans="1:11" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4465,7 +4601,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="18" spans="1:11" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -4500,7 +4636,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="22" customFormat="1" ht="36">
+    <row r="19" spans="1:11" s="22" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -4533,7 +4669,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="20" spans="1:11" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -4566,7 +4702,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="22" customFormat="1" ht="48">
+    <row r="21" spans="1:11" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -4601,7 +4737,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="22" spans="1:11" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4634,7 +4770,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="23" spans="1:11" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4667,7 +4803,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="24" spans="1:11" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4700,7 +4836,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="25" spans="1:11" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4733,7 +4869,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="26" spans="1:11" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4766,7 +4902,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="27" spans="1:11" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4799,7 +4935,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="28" spans="1:11" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4830,7 +4966,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="29" spans="1:11" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4861,7 +4997,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="60">
+    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.15">
       <c r="A30" s="37">
         <v>31</v>
       </c>
@@ -4877,7 +5013,7 @@
         <v>41</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H30" s="35">
         <v>40648</v>
@@ -4888,25 +5024,25 @@
       <c r="J30" s="32"/>
       <c r="K30" s="32"/>
     </row>
-    <row r="31" spans="1:11" ht="23.25" customHeight="1">
+    <row r="31" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="39">
         <v>32</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>112</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H31" s="19">
         <v>40648</v>
@@ -4916,28 +5052,28 @@
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="36">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="36" x14ac:dyDescent="0.15">
       <c r="A32" s="39">
         <v>33</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>113</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H32" s="19">
         <v>40648</v>
@@ -4947,41 +5083,41 @@
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="36">
-      <c r="A33" s="39">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="36" x14ac:dyDescent="0.15">
+      <c r="A33" s="37">
         <v>34</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H33" s="19">
+      <c r="C33" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="35">
         <v>40648</v>
       </c>
-      <c r="I33" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="36">
+      <c r="I33" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="L33" s="43"/>
+    </row>
+    <row r="34" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A34" s="39">
         <v>35</v>
       </c>
@@ -4989,17 +5125,17 @@
         <v>37</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H34" s="19">
         <v>40648</v>
@@ -5009,28 +5145,28 @@
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="24">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A35" s="39">
         <v>36</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H35" s="19">
         <v>40648</v>
@@ -5040,28 +5176,28 @@
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="24">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A36" s="39">
         <v>37</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H36" s="19">
         <v>40648</v>
@@ -5071,28 +5207,28 @@
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="21.75" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="39">
         <v>38</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H37" s="19">
         <v>40648</v>
@@ -5102,28 +5238,28 @@
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="21" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="39">
         <v>39</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H38" s="19">
         <v>40648</v>
@@ -5133,26 +5269,26 @@
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="20.25" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="39">
         <v>40</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="4"/>
       <c r="F39" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H39" s="19">
         <v>40648</v>
@@ -5163,7 +5299,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" ht="22.5" customHeight="1">
+    <row r="40" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="39">
         <v>41</v>
       </c>
@@ -5171,17 +5307,17 @@
         <v>71</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H40" s="19">
         <v>40648</v>
@@ -5191,10 +5327,10 @@
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="26.25" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="39">
         <v>42</v>
       </c>
@@ -5202,15 +5338,15 @@
         <v>37</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="4"/>
       <c r="F41" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H41" s="19">
         <v>40648</v>
@@ -5220,26 +5356,26 @@
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="24">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A42" s="39">
         <v>43</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="4"/>
       <c r="F42" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H42" s="19">
         <v>40648</v>
@@ -5249,26 +5385,26 @@
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="19.5" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="39">
         <v>44</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="4"/>
       <c r="F43" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H43" s="19">
         <v>40648</v>
@@ -5278,26 +5414,26 @@
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="20.25" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="39">
         <v>45</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="4"/>
       <c r="F44" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H44" s="19">
         <v>40648</v>
@@ -5307,55 +5443,57 @@
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="24">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A45" s="39"/>
       <c r="B45" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="F45" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H45" s="19">
         <v>40643</v>
       </c>
       <c r="I45" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="36">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A46" s="39">
         <v>46</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="4"/>
       <c r="F46" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H46" s="19">
         <v>40648</v>
@@ -5365,15 +5503,15 @@
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="24">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>47</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>21</v>
@@ -5403,12 +5541,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="24">
+    <row r="48" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>29</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>110</v>
@@ -5439,11 +5577,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K29">
-    <filterColumn colId="6"/>
-    <filterColumn colId="9"/>
-    <filterColumn colId="10"/>
-  </autoFilter>
+  <autoFilter ref="A1:K29"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -5451,14 +5585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
@@ -5467,7 +5601,7 @@
     <col min="7" max="7" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
@@ -5475,7 +5609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -5495,9 +5629,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -5509,7 +5643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
@@ -5523,9 +5657,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -5537,9 +5671,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -5551,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -5567,7 +5701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
@@ -5585,7 +5719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>79</v>
       </c>
@@ -5601,7 +5735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>80</v>
       </c>
@@ -5615,7 +5749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>103</v>
       </c>
@@ -5629,9 +5763,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14">
@@ -5643,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
@@ -5663,7 +5797,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>12</v>
       </c>
@@ -5671,15 +5805,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B25" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
         <v>18</v>
       </c>
@@ -5687,15 +5821,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B27" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>79</v>
       </c>
@@ -5703,15 +5837,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B29" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
         <v>19</v>
       </c>
@@ -5719,7 +5853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
         <v>36</v>
       </c>
@@ -5727,7 +5861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
         <v>80</v>
       </c>
@@ -5735,7 +5869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
         <v>103</v>
       </c>
@@ -5743,15 +5877,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B34" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
         <v>11</v>
       </c>
@@ -5759,7 +5893,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>20</v>
       </c>
@@ -5767,7 +5901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>12</v>
       </c>
@@ -5775,7 +5909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="15" t="s">
         <v>18</v>
       </c>
@@ -5783,7 +5917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="15" t="s">
         <v>79</v>
       </c>
@@ -5791,7 +5925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="15" t="s">
         <v>19</v>
       </c>
@@ -5799,7 +5933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="15" t="s">
         <v>36</v>
       </c>
@@ -5807,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="15" t="s">
         <v>80</v>
       </c>
@@ -5815,15 +5949,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B53" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="15" t="s">
         <v>11</v>
       </c>
@@ -5839,14 +5973,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
@@ -5854,7 +5988,7 @@
     <col min="6" max="7" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -5866,7 +6000,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
@@ -5886,7 +6020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
@@ -5900,7 +6034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
@@ -5914,7 +6048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
@@ -5928,7 +6062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
@@ -5942,9 +6076,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5956,7 +6090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>81</v>
       </c>
@@ -5972,7 +6106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>82</v>
       </c>
@@ -5988,7 +6122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
@@ -6016,14 +6150,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
@@ -6032,7 +6166,7 @@
     <col min="6" max="7" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -6044,7 +6178,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
@@ -6064,7 +6198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>17</v>
       </c>
@@ -6078,7 +6212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>91</v>
       </c>
@@ -6096,7 +6230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>83</v>
       </c>
@@ -6110,9 +6244,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -6124,7 +6258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
